--- a/medicine/Psychotrope/Luigi_Bezzera/Luigi_Bezzera.xlsx
+++ b/medicine/Psychotrope/Luigi_Bezzera/Luigi_Bezzera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luigi Bezzera (né au XIXe siècle et mort au XXe siècle) est un mécanicien italien[1] considéré avec Angelo Moriondo comme le co-inventeur de la machine à expresso[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luigi Bezzera (né au XIXe siècle et mort au XXe siècle) est un mécanicien italien considéré avec Angelo Moriondo comme le co-inventeur de la machine à expresso.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que le brevet original pour l'extraction rapide du café à la vapeur et à l'eau chaude a été accordé à Angelo Moriondo le 16 mai 1884, Antonio Bezzera en a amélioré le concept et a déposé une demande de brevet pour ses innovations le 19 décembre 1901[3],[4] . Le brevet de Bezzera (153/94, 61707) [5] a été acquis par Desiderio Pavoni, qui a fondé la société La Pavoni en 1905[6].
-Pavoni  a commencé à travailler avec Bezzera sur une production de série dans un atelier de la Via Parini à Milan[7],[6]. En 1906, la machine espresso est exposée sous le nom de Bezzera L. Caffè Espresso à l'Exposition universelle de Milan de 1906.
-Le terme espresso pour le café préparé de cette façon est utilisé pour la première fois à cette occasion[8].
-Pavoni a rapidement promu la machine comme la machine à café « idéale » et l'a commercialisée sous le nom commercial « Ideale de Pavoni »[7].
-Par la suite, Bezzera et Pavoni ont construit des sociétés indépendantes[9].
-La société Bezzera est  dirigée par l'arrière-petit-fils de Luigi Bezzera, Luca Bezzera[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que le brevet original pour l'extraction rapide du café à la vapeur et à l'eau chaude a été accordé à Angelo Moriondo le 16 mai 1884, Antonio Bezzera en a amélioré le concept et a déposé une demande de brevet pour ses innovations le 19 décembre 1901, . Le brevet de Bezzera (153/94, 61707)  a été acquis par Desiderio Pavoni, qui a fondé la société La Pavoni en 1905.
+Pavoni  a commencé à travailler avec Bezzera sur une production de série dans un atelier de la Via Parini à Milan,. En 1906, la machine espresso est exposée sous le nom de Bezzera L. Caffè Espresso à l'Exposition universelle de Milan de 1906.
+Le terme espresso pour le café préparé de cette façon est utilisé pour la première fois à cette occasion.
+Pavoni a rapidement promu la machine comme la machine à café « idéale » et l'a commercialisée sous le nom commercial « Ideale de Pavoni ».
+Par la suite, Bezzera et Pavoni ont construit des sociétés indépendantes.
+La société Bezzera est  dirigée par l'arrière-petit-fils de Luigi Bezzera, Luca Bezzera.
 </t>
         </is>
       </c>
